--- a/data/scheduling_DNN/predict/0.5/result12.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result12.xlsx
@@ -570,10 +570,10 @@
         <v>0.952603816986084</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.4907947778701782</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02867184206843376</v>
+        <v>0.213267594575882</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.334076881408691</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.8686198592185974</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7804165482521057</v>
+        <v>0.2166502326726913</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8956248760223389</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.8622657060623169</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2420924603939056</v>
+        <v>0.001112834201194346</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8877480030059814</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.5068660974502563</v>
       </c>
       <c r="W5" t="n">
-        <v>0.234320193529129</v>
+        <v>0.1450710296630859</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.904541015625</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.4986174404621124</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1319369822740555</v>
+        <v>0.1647739559412003</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8690299987792969</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.4033688306808472</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04675249010324478</v>
+        <v>0.2168403267860413</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8919250965118408</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.8736749291419983</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04386515915393829</v>
+        <v>0.000333068601321429</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8653969764709473</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.8682274222373962</v>
       </c>
       <c r="W9" t="n">
-        <v>0.006797634530812502</v>
+        <v>8.01142323325621e-06</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.9151208400726318</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.8882768154144287</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1427010297775269</v>
+        <v>0.0007206016452983022</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8685071468353271</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.8810434937477112</v>
       </c>
       <c r="W11" t="n">
-        <v>0.161776065826416</v>
+        <v>0.0001571600005263463</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8527438640594482</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.8936971426010132</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1148108541965485</v>
+        <v>0.001677170977927744</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9210989475250244</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.4008241891860962</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1731887310743332</v>
+        <v>0.2706858217716217</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9215590953826904</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.5148278474807739</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2983085811138153</v>
+        <v>0.1654303073883057</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9037859439849854</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.4023849964141846</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2783779203891754</v>
+        <v>0.2514029145240784</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8658750057220459</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.5149997472763062</v>
       </c>
       <c r="W16" t="n">
-        <v>0.00310975220054388</v>
+        <v>0.1231134459376335</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8640758991241455</v>
       </c>
       <c r="V17" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.489623099565506</v>
       </c>
       <c r="W17" t="n">
-        <v>0.002937594195827842</v>
+        <v>0.1402149051427841</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8962569236755371</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.8750261068344116</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1025005355477333</v>
+        <v>0.0004507475823629647</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8587570190429688</v>
       </c>
       <c r="V19" t="n">
-        <v>0.534324586391449</v>
+        <v>0.3986833095550537</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1052564010024071</v>
+        <v>0.2116678208112717</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8615858554840088</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.5149194598197937</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1088868081569672</v>
+        <v>0.1201775893568993</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8600749969482422</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.4243969321250916</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1676161885261536</v>
+        <v>0.1898153722286224</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.565654993057251</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.5150736570358276</v>
       </c>
       <c r="W22" t="n">
-        <v>0.004064035601913929</v>
+        <v>0.002558471634984016</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5287930965423584</v>
       </c>
       <c r="V23" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.503757655620575</v>
       </c>
       <c r="W23" t="n">
-        <v>0.1710881143808365</v>
+        <v>0.0006267732824198902</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5266461372375488</v>
       </c>
       <c r="V24" t="n">
-        <v>0.350454181432724</v>
+        <v>0.4121364653110504</v>
       </c>
       <c r="W24" t="n">
-        <v>0.03104360587894917</v>
+        <v>0.01311246491968632</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5360538959503174</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.3973603248596191</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0004222564748488367</v>
+        <v>0.01923590712249279</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5505869388580322</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.5148353576660156</v>
       </c>
       <c r="W26" t="n">
-        <v>0.008369596675038338</v>
+        <v>0.001278175506740808</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.543658971786499</v>
       </c>
       <c r="V27" t="n">
-        <v>0.350296825170517</v>
+        <v>0.4032189249992371</v>
       </c>
       <c r="W27" t="n">
-        <v>0.03738892078399658</v>
+        <v>0.01972340606153011</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5114798545837402</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.4230278134346008</v>
       </c>
       <c r="W28" t="n">
-        <v>5.487703674589284e-05</v>
+        <v>0.0078237634152174</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5384080410003662</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.4938998520374298</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02077348902821541</v>
+        <v>0.0019809789955616</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5418980121612549</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.8721948266029358</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01979581452906132</v>
+        <v>0.1090959832072258</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5192830562591553</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.4972124397754669</v>
       </c>
       <c r="W31" t="n">
-        <v>0.02080554515123367</v>
+        <v>0.0004871121200267226</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5432279109954834</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.5021822452545166</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0008552920771762729</v>
+        <v>0.001684746704995632</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5152621269226074</v>
       </c>
       <c r="V33" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.4017314910888672</v>
       </c>
       <c r="W33" t="n">
-        <v>0.08563194423913956</v>
+        <v>0.01288920547813177</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5551590919494629</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.4022006690502167</v>
       </c>
       <c r="W34" t="n">
-        <v>0.003125460585579276</v>
+        <v>0.02339627966284752</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5219850540161133</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.8768129348754883</v>
       </c>
       <c r="W35" t="n">
-        <v>0.004461220465600491</v>
+        <v>0.1259028315544128</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5172760486602783</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.8922821879386902</v>
       </c>
       <c r="W36" t="n">
-        <v>0.004452076740562916</v>
+        <v>0.1406296044588089</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5162608623504639</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.4023666977882385</v>
       </c>
       <c r="W37" t="n">
-        <v>0.004315718077123165</v>
+        <v>0.01297188084572554</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5519909858703613</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.8675491809844971</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02202044054865837</v>
+        <v>0.09957697242498398</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.51957106590271</v>
       </c>
       <c r="V39" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.8694232702255249</v>
       </c>
       <c r="W39" t="n">
-        <v>0.02325509674847126</v>
+        <v>0.1223965659737587</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5194029808044434</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.9005710482597351</v>
       </c>
       <c r="W40" t="n">
-        <v>0.00048189697554335</v>
+        <v>0.1452890932559967</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5227441787719727</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.857079803943634</v>
       </c>
       <c r="W41" t="n">
-        <v>0.01423633191734552</v>
+        <v>0.1117803081870079</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4032289981842041</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.8683616518974304</v>
       </c>
       <c r="W42" t="n">
-        <v>0.009908637963235378</v>
+        <v>0.2163483798503876</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4273319244384766</v>
       </c>
       <c r="V43" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.3973314762115479</v>
       </c>
       <c r="W43" t="n">
-        <v>0.002162233227863908</v>
+        <v>0.0009000268764793873</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.387653112411499</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.8707764148712158</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0002549321216065437</v>
+        <v>0.233408123254776</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.408905029296875</v>
       </c>
       <c r="V45" t="n">
-        <v>0.944080114364624</v>
+        <v>0.40152308344841</v>
       </c>
       <c r="W45" t="n">
-        <v>0.2864123582839966</v>
+        <v>5.449312448035926e-05</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3895759582519531</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.3975244760513306</v>
       </c>
       <c r="W46" t="n">
-        <v>0.001504794927313924</v>
+        <v>6.317893712548539e-05</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4121971130371094</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.8616620898246765</v>
       </c>
       <c r="W47" t="n">
-        <v>0.01048389356583357</v>
+        <v>0.2020187675952911</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3918960094451904</v>
       </c>
       <c r="V48" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.3973152637481689</v>
       </c>
       <c r="W48" t="n">
-        <v>0.1533419787883759</v>
+        <v>2.936831697297748e-05</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3871479034423828</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.4898121953010559</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0002742134674917907</v>
+        <v>0.0105399563908577</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3896689414978027</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.4183598160743713</v>
       </c>
       <c r="W50" t="n">
-        <v>0.001538582844659686</v>
+        <v>0.0008231662795878947</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.386538028717041</v>
       </c>
       <c r="V51" t="n">
-        <v>0.514474630355835</v>
+        <v>0.899751603603363</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01636777445673943</v>
+        <v>0.2633881866931915</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3959648609161377</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.8730725049972534</v>
       </c>
       <c r="W52" t="n">
-        <v>0.006703134626150131</v>
+        <v>0.2276317030191422</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.4085009098052979</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.3973510563373566</v>
       </c>
       <c r="W53" t="n">
-        <v>0.01581822149455547</v>
+        <v>0.000124319238238968</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3869621753692627</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.4996966421604156</v>
       </c>
       <c r="W54" t="n">
-        <v>0.01342552527785301</v>
+        <v>0.0127090597525239</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3857409954071045</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.5078989267349243</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01403014454990625</v>
+        <v>0.0149225601926446</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.42215895652771</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.515051543712616</v>
       </c>
       <c r="W56" t="n">
-        <v>0.006039710715413094</v>
+        <v>0.008629032410681248</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3867459297180176</v>
       </c>
       <c r="V57" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.8756352066993713</v>
       </c>
       <c r="W57" t="n">
-        <v>3.219331483705901e-05</v>
+        <v>0.2390127182006836</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3957018852233887</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.4111955463886261</v>
       </c>
       <c r="W58" t="n">
-        <v>0.01997477561235428</v>
+        <v>0.0002400535304332152</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3904459476470947</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.515992283821106</v>
       </c>
       <c r="W59" t="n">
-        <v>0.02153322845697403</v>
+        <v>0.01576188206672668</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3833858966827393</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.8854666352272034</v>
       </c>
       <c r="W60" t="n">
-        <v>0.0006330938194878399</v>
+        <v>0.2520850598812103</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3862109184265137</v>
       </c>
       <c r="V61" t="n">
-        <v>0.350784033536911</v>
+        <v>0.8807281851768494</v>
       </c>
       <c r="W61" t="n">
-        <v>0.001255064154975116</v>
+        <v>0.2445473223924637</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9490561485290527</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.4950399994850159</v>
       </c>
       <c r="W62" t="n">
-        <v>0.2217365354299545</v>
+        <v>0.2061306685209274</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>1.02036190032959</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.5156689286231995</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1864629834890366</v>
+        <v>0.2547149956226349</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8596169948577881</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.4980784058570862</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1289123892784119</v>
+        <v>0.1307101547718048</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8842320442199707</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.8685937523841858</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1223298013210297</v>
+        <v>0.0002445561694912612</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8879318237304688</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.8796607255935669</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2345921248197556</v>
+        <v>6.841106369392946e-05</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8627638816833496</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.3973318040370941</v>
       </c>
       <c r="W67" t="n">
-        <v>0.0750792920589447</v>
+        <v>0.2166270166635513</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8606820106506348</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.4944085776805878</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1203601136803627</v>
+        <v>0.1341562271118164</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9056169986724854</v>
       </c>
       <c r="V69" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.423706591129303</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2090441286563873</v>
+        <v>0.2322376370429993</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8627009391784668</v>
       </c>
       <c r="V70" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.5007297396659851</v>
       </c>
       <c r="W70" t="n">
-        <v>0.00660353060811758</v>
+        <v>0.1310231536626816</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8650338649749756</v>
       </c>
       <c r="V71" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.4878360629081726</v>
       </c>
       <c r="W71" t="n">
-        <v>0.2644562423229218</v>
+        <v>0.142278179526329</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8658709526062012</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.4033673703670502</v>
       </c>
       <c r="W72" t="n">
-        <v>0.09308060258626938</v>
+        <v>0.2139095664024353</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8623340129852295</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.4015473127365112</v>
       </c>
       <c r="W73" t="n">
-        <v>0.09024246037006378</v>
+        <v>0.2123243808746338</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8941628932952881</v>
       </c>
       <c r="V74" t="n">
-        <v>0.654166579246521</v>
+        <v>0.5080206990242004</v>
       </c>
       <c r="W74" t="n">
-        <v>0.05759822949767113</v>
+        <v>0.1491057872772217</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8654181957244873</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.3975183963775635</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1738759279251099</v>
+        <v>0.2189302295446396</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8610179424285889</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.402825802564621</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1281198263168335</v>
+        <v>0.209940031170845</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8773460388183594</v>
       </c>
       <c r="V77" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.5461292266845703</v>
       </c>
       <c r="W77" t="n">
-        <v>0.008730064146220684</v>
+        <v>0.1097045764327049</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8589379787445068</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.8679912686347961</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1263758689165115</v>
+        <v>8.196205453714356e-05</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8573977947235107</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.5047585964202881</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2368776649236679</v>
+        <v>0.1243544071912766</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8649160861968994</v>
       </c>
       <c r="V80" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.4991913735866547</v>
       </c>
       <c r="W80" t="n">
-        <v>0.006534911692142487</v>
+        <v>0.1337545663118362</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8949320316314697</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.5258886814117432</v>
       </c>
       <c r="W81" t="n">
-        <v>0.2413549423217773</v>
+        <v>0.1361929923295975</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5693590641021729</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.3973656594753265</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01063788961619139</v>
+        <v>0.02958173118531704</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5428838729858398</v>
       </c>
       <c r="V83" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.4304592907428741</v>
       </c>
       <c r="W83" t="n">
-        <v>0.00157090974971652</v>
+        <v>0.01263928692787886</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5235159397125244</v>
       </c>
       <c r="V84" t="n">
-        <v>0.672019362449646</v>
+        <v>0.5080525875091553</v>
       </c>
       <c r="W84" t="n">
-        <v>0.02205326594412327</v>
+        <v>0.0002391152665950358</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5218908786773682</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.8803352117538452</v>
       </c>
       <c r="W85" t="n">
-        <v>0.001501067657954991</v>
+        <v>0.1284823417663574</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5189769268035889</v>
       </c>
       <c r="V86" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.5134620070457458</v>
       </c>
       <c r="W86" t="n">
-        <v>0.08704368770122528</v>
+        <v>3.041433956241235e-05</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5201320648193359</v>
       </c>
       <c r="V87" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.8688632845878601</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0150147071108222</v>
+        <v>0.1216134652495384</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5199019908905029</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.3973603844642639</v>
       </c>
       <c r="W88" t="n">
-        <v>0.004714214708656073</v>
+        <v>0.01501644495874643</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5222599506378174</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.3975105881690979</v>
       </c>
       <c r="W89" t="n">
-        <v>0.01408303994685411</v>
+        <v>0.01556240301579237</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5216119289398193</v>
       </c>
       <c r="V90" t="n">
-        <v>0.504324197769165</v>
+        <v>0.5150023102760315</v>
       </c>
       <c r="W90" t="n">
-        <v>0.0002988656633533537</v>
+        <v>4.368705776869319e-05</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5207319259643555</v>
       </c>
       <c r="V91" t="n">
-        <v>0.514431357383728</v>
+        <v>0.5070464015007019</v>
       </c>
       <c r="W91" t="n">
-        <v>3.969716271967627e-05</v>
+        <v>0.0001872935827123001</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.6132528781890869</v>
       </c>
       <c r="V92" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.8682791590690613</v>
       </c>
       <c r="W92" t="n">
-        <v>0.03768115863204002</v>
+        <v>0.06503840535879135</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5233850479125977</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.3973339796066284</v>
       </c>
       <c r="W93" t="n">
-        <v>0.01433084066957235</v>
+        <v>0.0158888716250658</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5228369235992432</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.5147650837898254</v>
       </c>
       <c r="W94" t="n">
-        <v>0.01796518638730049</v>
+        <v>6.515459972433746e-05</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5205650329589844</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.4243153929710388</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0003602957003749907</v>
+        <v>0.009263993240892887</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5235052108764648</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.3992069661617279</v>
       </c>
       <c r="W96" t="n">
-        <v>0.002853003097698092</v>
+        <v>0.01545005384832621</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5544438362121582</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.3973491191864014</v>
       </c>
       <c r="W97" t="n">
-        <v>0.00754690682515502</v>
+        <v>0.02467874996364117</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5195891857147217</v>
       </c>
       <c r="V98" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.4973060786724091</v>
       </c>
       <c r="W98" t="n">
-        <v>0.02073151804506779</v>
+        <v>0.0004965368425473571</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5229358673095703</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.4968238472938538</v>
       </c>
       <c r="W99" t="n">
-        <v>0.01791230589151382</v>
+        <v>0.0006818376132287085</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5188920497894287</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.4022686779499054</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0003417947445996106</v>
+        <v>0.01360101066529751</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5197830200195312</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.8732325434684753</v>
       </c>
       <c r="W101" t="n">
-        <v>3.759346509468742e-05</v>
+        <v>0.1249265670776367</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3988430500030518</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.8614098429679871</v>
       </c>
       <c r="W102" t="n">
-        <v>0.01319485902786255</v>
+        <v>0.21396803855896</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.5032210350036621</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.8937888145446777</v>
       </c>
       <c r="W103" t="n">
-        <v>0.009970034472644329</v>
+        <v>0.1525431871414185</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4133470058441162</v>
       </c>
       <c r="V104" t="n">
-        <v>0.672245979309082</v>
+        <v>0.8760873675346375</v>
       </c>
       <c r="W104" t="n">
-        <v>0.06702867895364761</v>
+        <v>0.2141286432743073</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4071540832519531</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.4997695684432983</v>
       </c>
       <c r="W105" t="n">
-        <v>0.01137793436646461</v>
+        <v>0.008577628061175346</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.4157869815826416</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.8804830312728882</v>
       </c>
       <c r="W106" t="n">
-        <v>0.0514068678021431</v>
+        <v>0.2159424126148224</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3899369239807129</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.4009136557579041</v>
       </c>
       <c r="W107" t="n">
-        <v>0.007764370180666447</v>
+        <v>0.000120488643005956</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.392441987991333</v>
       </c>
       <c r="V108" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.8959380984306335</v>
       </c>
       <c r="W108" t="n">
-        <v>0.1531535387039185</v>
+        <v>0.2535083293914795</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.4405429363250732</v>
       </c>
       <c r="V109" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.4944534301757812</v>
       </c>
       <c r="W109" t="n">
-        <v>0.1334882080554962</v>
+        <v>0.002906341338530183</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3952469825744629</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.54167640209198</v>
       </c>
       <c r="W110" t="n">
-        <v>0.01882576942443848</v>
+        <v>0.02144157513976097</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3965070247650146</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.4243306815624237</v>
       </c>
       <c r="W111" t="n">
-        <v>0.00660839956253767</v>
+        <v>0.0007741558947600424</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4063401222229004</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.871051013469696</v>
       </c>
       <c r="W112" t="n">
-        <v>0.04074662178754807</v>
+        <v>0.2159562110900879</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3901200294494629</v>
       </c>
       <c r="V113" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.4901987016201019</v>
       </c>
       <c r="W113" t="n">
-        <v>0.1749632507562637</v>
+        <v>0.01001574099063873</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3878600597381592</v>
       </c>
       <c r="V114" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.8619285225868225</v>
       </c>
       <c r="W114" t="n">
-        <v>0.313384085893631</v>
+        <v>0.2247409075498581</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4553508758544922</v>
       </c>
       <c r="V115" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.3987295031547546</v>
       </c>
       <c r="W115" t="n">
-        <v>0.2373859286308289</v>
+        <v>0.003205979941412807</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3905739784240723</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.8703967928886414</v>
       </c>
       <c r="W116" t="n">
-        <v>0.01518997643142939</v>
+        <v>0.2302299290895462</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3926560878753662</v>
       </c>
       <c r="V117" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.4854942560195923</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0001320259761996567</v>
+        <v>0.008618925698101521</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.3983628749847412</v>
       </c>
       <c r="V118" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.4108617901802063</v>
       </c>
       <c r="W118" t="n">
-        <v>0.002264489186927676</v>
+        <v>0.0001562228862894699</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3890290260314941</v>
       </c>
       <c r="V119" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.5150432586669922</v>
       </c>
       <c r="W119" t="n">
-        <v>0.001339570502750576</v>
+        <v>0.01587958633899689</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4026010036468506</v>
       </c>
       <c r="V120" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.3973298072814941</v>
       </c>
       <c r="W120" t="n">
-        <v>0.1635729074478149</v>
+        <v>2.778551061055623e-05</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4272909164428711</v>
       </c>
       <c r="V121" t="n">
-        <v>0.946087121963501</v>
+        <v>0.5150502920150757</v>
       </c>
       <c r="W121" t="n">
-        <v>0.269149512052536</v>
+        <v>0.007701708003878593</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8608248233795166</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.8761877417564392</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1557076126337051</v>
+        <v>0.0002360192593187094</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9513201713562012</v>
       </c>
       <c r="V123" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.4242722690105438</v>
       </c>
       <c r="W123" t="n">
-        <v>0.3587157130241394</v>
+        <v>0.2777794599533081</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9143290519714355</v>
       </c>
       <c r="V124" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.8807840943336487</v>
       </c>
       <c r="W124" t="n">
-        <v>0.2841570377349854</v>
+        <v>0.001125264214351773</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9267010688781738</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.8684821128845215</v>
       </c>
       <c r="W125" t="n">
-        <v>0.05213377997279167</v>
+        <v>0.003389446763321757</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8740890026092529</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.8804094791412354</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1199852973222733</v>
+        <v>3.994842336396687e-05</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8638429641723633</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.498400866985321</v>
       </c>
       <c r="W127" t="n">
-        <v>0.0917191356420517</v>
+        <v>0.1335479319095612</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8481719493865967</v>
       </c>
       <c r="V128" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.8583050966262817</v>
       </c>
       <c r="W128" t="n">
-        <v>0.01069345697760582</v>
+        <v>0.0001026806712616235</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9064929485321045</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.4123848080635071</v>
       </c>
       <c r="W129" t="n">
-        <v>0.2532168924808502</v>
+        <v>0.2441428601741791</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9031860828399658</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.4993627965450287</v>
       </c>
       <c r="W130" t="n">
-        <v>0.06166991963982582</v>
+        <v>0.1630732417106628</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8651058673858643</v>
       </c>
       <c r="V131" t="n">
-        <v>0.65655517578125</v>
+        <v>0.8743596076965332</v>
       </c>
       <c r="W131" t="n">
-        <v>0.04349339008331299</v>
+        <v>8.563171286368743e-05</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.879828929901123</v>
       </c>
       <c r="V132" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.8717496991157532</v>
       </c>
       <c r="W132" t="n">
-        <v>0.2798848152160645</v>
+        <v>6.527396908495575e-05</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9513399600982666</v>
       </c>
       <c r="V133" t="n">
-        <v>0.466268926858902</v>
+        <v>0.3973462879657745</v>
       </c>
       <c r="W133" t="n">
-        <v>0.235293909907341</v>
+        <v>0.3069090247154236</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8587989807128906</v>
       </c>
       <c r="V134" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.8744938373565674</v>
       </c>
       <c r="W134" t="n">
-        <v>0.00146082672290504</v>
+        <v>0.0002463285345584154</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8632290363311768</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.4927391409873962</v>
       </c>
       <c r="W135" t="n">
-        <v>0.2114550471305847</v>
+        <v>0.137262761592865</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.862076997756958</v>
       </c>
       <c r="V136" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.51655513048172</v>
       </c>
       <c r="W136" t="n">
-        <v>0.2614169418811798</v>
+        <v>0.1193853616714478</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9197351932525635</v>
       </c>
       <c r="V137" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.3993489146232605</v>
       </c>
       <c r="W137" t="n">
-        <v>0.07646167278289795</v>
+        <v>0.2708018720149994</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8655719757080078</v>
       </c>
       <c r="V138" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.413312166929245</v>
       </c>
       <c r="W138" t="n">
-        <v>0.244478777050972</v>
+        <v>0.2045389413833618</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8670549392700195</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.4141619503498077</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1247293278574944</v>
+        <v>0.2051120549440384</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8746049404144287</v>
       </c>
       <c r="V140" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.8742498159408569</v>
       </c>
       <c r="W140" t="n">
-        <v>0.2217627167701721</v>
+        <v>1.26113391729632e-07</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.915614128112793</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.4014774560928345</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1700961291790009</v>
+        <v>0.2643365263938904</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5312681198120117</v>
       </c>
       <c r="V142" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.4897628426551819</v>
       </c>
       <c r="W142" t="n">
-        <v>0.1735575348138809</v>
+        <v>0.001722688088193536</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5191421508789062</v>
       </c>
       <c r="V143" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.5155481100082397</v>
       </c>
       <c r="W143" t="n">
-        <v>2.216518987552263e-05</v>
+        <v>1.291712942474987e-05</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5196027755737305</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.4112036228179932</v>
       </c>
       <c r="W144" t="n">
-        <v>0.01475272513926029</v>
+        <v>0.01175037678331137</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5180189609527588</v>
       </c>
       <c r="V145" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.410928875207901</v>
       </c>
       <c r="W145" t="n">
-        <v>0.01880188845098019</v>
+        <v>0.01146828662604094</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5724101066589355</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.3973254859447479</v>
       </c>
       <c r="W146" t="n">
-        <v>0.001043551601469517</v>
+        <v>0.03065462410449982</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5305349826812744</v>
       </c>
       <c r="V147" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.4032487273216248</v>
       </c>
       <c r="W147" t="n">
-        <v>0.01611532457172871</v>
+        <v>0.01620179042220116</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5220389366149902</v>
       </c>
       <c r="V148" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.8807427883148193</v>
       </c>
       <c r="W148" t="n">
-        <v>0.02152981795370579</v>
+        <v>0.1286684572696686</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5190541744232178</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.8933770060539246</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0001768408983480185</v>
+        <v>0.1401175856590271</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5187580585479736</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.8591657876968384</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01325047947466373</v>
+        <v>0.1158774197101593</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5137729644775391</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.3974921107292175</v>
       </c>
       <c r="W151" t="n">
-        <v>4.298783551348606e-11</v>
+        <v>0.01352123729884624</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5403671264648438</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.9004799723625183</v>
       </c>
       <c r="W152" t="n">
-        <v>0.0006873427191749215</v>
+        <v>0.129681259393692</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5196170806884766</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.4235857129096985</v>
       </c>
       <c r="W153" t="n">
-        <v>0.02684141509234905</v>
+        <v>0.009222023189067841</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5132629871368408</v>
       </c>
       <c r="V154" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.8672958612442017</v>
       </c>
       <c r="W154" t="n">
-        <v>0.01207794435322285</v>
+        <v>0.1253392696380615</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.519340991973877</v>
       </c>
       <c r="V155" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.4236239790916443</v>
       </c>
       <c r="W155" t="n">
-        <v>0.02028194442391396</v>
+        <v>0.009161746129393578</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5175490379333496</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.4228264093399048</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01544166076928377</v>
+        <v>0.008972376585006714</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5668008327484131</v>
       </c>
       <c r="V157" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.4994245767593384</v>
       </c>
       <c r="W157" t="n">
-        <v>0.03235330432653427</v>
+        <v>0.004539560060948133</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5193181037902832</v>
       </c>
       <c r="V158" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.540902853012085</v>
       </c>
       <c r="W158" t="n">
-        <v>0.06937715411186218</v>
+        <v>0.0004659013939090073</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5185708999633789</v>
       </c>
       <c r="V159" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.4243980646133423</v>
       </c>
       <c r="W159" t="n">
-        <v>0.02689988166093826</v>
+        <v>0.008868522942066193</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.519956111907959</v>
       </c>
       <c r="V160" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.896068274974823</v>
       </c>
       <c r="W160" t="n">
-        <v>0.01967578940093517</v>
+        <v>0.1414603590965271</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.514286994934082</v>
       </c>
       <c r="V161" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.397336483001709</v>
       </c>
       <c r="W161" t="n">
-        <v>0.1865279525518417</v>
+        <v>0.01367742195725441</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3928680419921875</v>
       </c>
       <c r="V162" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.410035640001297</v>
       </c>
       <c r="W162" t="n">
-        <v>0.001772398478351533</v>
+        <v>0.0002947264292743057</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3900651931762695</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.860931932926178</v>
       </c>
       <c r="W163" t="n">
-        <v>0.07013726234436035</v>
+        <v>0.2217154800891876</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3904728889465332</v>
       </c>
       <c r="V164" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.5416573882102966</v>
       </c>
       <c r="W164" t="n">
-        <v>0.1539806872606277</v>
+        <v>0.02285675331950188</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3922960758209229</v>
       </c>
       <c r="V165" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.4033787846565247</v>
       </c>
       <c r="W165" t="n">
-        <v>0.001723274355754256</v>
+        <v>0.0001228264300152659</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3912689685821533</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.8703235983848572</v>
       </c>
       <c r="W166" t="n">
-        <v>0.08486524224281311</v>
+        <v>0.2294933348894119</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3908958435058594</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.4253100156784058</v>
       </c>
       <c r="W167" t="n">
-        <v>0.02145435474812984</v>
+        <v>0.001184335211291909</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3913590908050537</v>
       </c>
       <c r="V168" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.5074979662895203</v>
       </c>
       <c r="W168" t="n">
-        <v>0.08478163927793503</v>
+        <v>0.01348823867738247</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3933620452880859</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.4118398427963257</v>
       </c>
       <c r="W169" t="n">
-        <v>0.01810908503830433</v>
+        <v>0.0003414289967622608</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4011070728302002</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.8695029616355896</v>
       </c>
       <c r="W170" t="n">
-        <v>0.08771998435258865</v>
+        <v>0.219394713640213</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3898968696594238</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.8673738837242126</v>
       </c>
       <c r="W171" t="n">
-        <v>0.0130624221637845</v>
+        <v>0.227984294295311</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4136419296264648</v>
       </c>
       <c r="V172" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.3986969590187073</v>
       </c>
       <c r="W172" t="n">
-        <v>0.1574058085680008</v>
+        <v>0.0002233521518064663</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4084708690643311</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.5092739462852478</v>
       </c>
       <c r="W173" t="n">
-        <v>0.004783000331372023</v>
+        <v>0.0101612601429224</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4371118545532227</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.8730392456054688</v>
       </c>
       <c r="W174" t="n">
-        <v>0.01091924030333757</v>
+        <v>0.1900326907634735</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4074561595916748</v>
       </c>
       <c r="V175" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.5091391801834106</v>
       </c>
       <c r="W175" t="n">
-        <v>0.001351093989796937</v>
+        <v>0.01033943705260754</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.4057528972625732</v>
       </c>
       <c r="V176" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.869632363319397</v>
       </c>
       <c r="W176" t="n">
-        <v>0.1683629304170609</v>
+        <v>0.2151841521263123</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4089059829711914</v>
       </c>
       <c r="V177" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.8928502202033997</v>
       </c>
       <c r="W177" t="n">
-        <v>0.286512553691864</v>
+        <v>0.2342020273208618</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.393873929977417</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.8698970675468445</v>
       </c>
       <c r="W178" t="n">
-        <v>0.01443108823150396</v>
+        <v>0.2265980243682861</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3903629779815674</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.4015383422374725</v>
       </c>
       <c r="W179" t="n">
-        <v>0.01541098207235336</v>
+        <v>0.0001248887710971758</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3920438289642334</v>
       </c>
       <c r="V180" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.4095857441425323</v>
       </c>
       <c r="W180" t="n">
-        <v>0.003184914821758866</v>
+        <v>0.000307718786643818</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4498839378356934</v>
       </c>
       <c r="V181" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.873496949672699</v>
       </c>
       <c r="W181" t="n">
-        <v>0.009823496453464031</v>
+        <v>0.1794479787349701</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.882655143737793</v>
       </c>
       <c r="V182" t="n">
-        <v>0.531548023223877</v>
+        <v>0.8684213757514954</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1232762113213539</v>
+        <v>0.0002026001457124949</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8674390316009521</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.4902500510215759</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1061529815196991</v>
+        <v>0.1422715336084366</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.893139123916626</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.5149883627891541</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2396432906389236</v>
+        <v>0.142997995018959</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.927448034286499</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.8690922856330872</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1490491330623627</v>
+        <v>0.003405393334105611</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8640480041503906</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.4095761179924011</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2122361958026886</v>
+        <v>0.2065446972846985</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8874120712280273</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.3977145850658417</v>
       </c>
       <c r="W187" t="n">
-        <v>0.0544368289411068</v>
+        <v>0.2398036271333694</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8601458072662354</v>
       </c>
       <c r="V188" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.4990474879741669</v>
       </c>
       <c r="W188" t="n">
-        <v>0.2598699927330017</v>
+        <v>0.130392000079155</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9242739677429199</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.3973569571971893</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1672500222921371</v>
+        <v>0.2776415050029755</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8668110370635986</v>
       </c>
       <c r="V190" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.9002665281295776</v>
       </c>
       <c r="W190" t="n">
-        <v>0.2460899651050568</v>
+        <v>0.001119269873015583</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8819270133972168</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.4022738933563232</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1353024393320084</v>
+        <v>0.2300671190023422</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8556089401245117</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.4033952653408051</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1234689876437187</v>
+        <v>0.2044972032308578</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9200839996337891</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.8627126812934875</v>
       </c>
       <c r="W193" t="n">
-        <v>0.266760915517807</v>
+        <v>0.003291468136012554</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8683309555053711</v>
       </c>
       <c r="V194" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.3987334966659546</v>
       </c>
       <c r="W194" t="n">
-        <v>0.006074195727705956</v>
+        <v>0.2205217778682709</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8612608909606934</v>
       </c>
       <c r="V195" t="n">
-        <v>0.514564037322998</v>
+        <v>0.4927330017089844</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1201987117528915</v>
+        <v>0.1358128041028976</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8564550876617432</v>
       </c>
       <c r="V196" t="n">
-        <v>0.381181538105011</v>
+        <v>0.5011502504348755</v>
       </c>
       <c r="W196" t="n">
-        <v>0.2258849442005157</v>
+        <v>0.1262415200471878</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9155089855194092</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.3973375856876373</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1401332467794418</v>
+        <v>0.2685016393661499</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8606579303741455</v>
       </c>
       <c r="V198" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.4234434068202972</v>
       </c>
       <c r="W198" t="n">
-        <v>0.006688585504889488</v>
+        <v>0.1911565363407135</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8633909225463867</v>
       </c>
       <c r="V199" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.8896647691726685</v>
       </c>
       <c r="W199" t="n">
-        <v>0.04354904964566231</v>
+        <v>0.0006903150351718068</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8620779514312744</v>
       </c>
       <c r="V200" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.8733413219451904</v>
       </c>
       <c r="W200" t="n">
-        <v>0.006399549078196287</v>
+        <v>0.0001268635096494108</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.930138111114502</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.4231591820716858</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1262768507003784</v>
+        <v>0.2570276260375977</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5199649333953857</v>
       </c>
       <c r="V202" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.8687981367111206</v>
       </c>
       <c r="W202" t="n">
-        <v>2.049240356427617e-05</v>
+        <v>0.1216846033930779</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5156650543212891</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.4226202070713043</v>
       </c>
       <c r="W203" t="n">
-        <v>0.0001276313560083508</v>
+        <v>0.008657343685626984</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5371429920196533</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.5035560131072998</v>
       </c>
       <c r="W204" t="n">
-        <v>0.02592768333852291</v>
+        <v>0.001128085190430284</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5184080600738525</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.8738754391670227</v>
       </c>
       <c r="W205" t="n">
-        <v>0.01915227249264717</v>
+        <v>0.1263570636510849</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5785598754882812</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.8871134519577026</v>
       </c>
       <c r="W206" t="n">
-        <v>0.03060250915586948</v>
+        <v>0.09520530700683594</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5228321552276611</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.9004788398742676</v>
       </c>
       <c r="W207" t="n">
-        <v>0.0003430477227084339</v>
+        <v>0.1426170170307159</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5154600143432617</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.4022308588027954</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01597720012068748</v>
+        <v>0.01282084174454212</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5183429718017578</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.8676081299781799</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0002091285859933123</v>
+        <v>0.1219861507415771</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.519568920135498</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.514886736869812</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01870649307966232</v>
+        <v>2.192284046032e-05</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5232222080230713</v>
       </c>
       <c r="V211" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.4243059754371643</v>
       </c>
       <c r="W211" t="n">
-        <v>4.450318738236092e-05</v>
+        <v>0.00978442095220089</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5290160179138184</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.502042829990387</v>
       </c>
       <c r="W212" t="n">
-        <v>2.7440355552244e-05</v>
+        <v>0.0007275528623722494</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5199170112609863</v>
       </c>
       <c r="V213" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.4023498892784119</v>
       </c>
       <c r="W213" t="n">
-        <v>0.08350737392902374</v>
+        <v>0.01382202841341496</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5137529373168945</v>
       </c>
       <c r="V214" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.8670052886009216</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01914752088487148</v>
+        <v>0.124787226319313</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5117549896240234</v>
       </c>
       <c r="V215" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.4988381266593933</v>
       </c>
       <c r="W215" t="n">
-        <v>0.1933357864618301</v>
+        <v>0.0001668453478487208</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5118539333343506</v>
       </c>
       <c r="V216" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.886509120464325</v>
       </c>
       <c r="W216" t="n">
-        <v>0.1901294589042664</v>
+        <v>0.1403665095567703</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5675628185272217</v>
       </c>
       <c r="V217" t="n">
-        <v>0.782903790473938</v>
+        <v>0.4100225269794464</v>
       </c>
       <c r="W217" t="n">
-        <v>0.04637173563241959</v>
+        <v>0.02481894381344318</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.520266056060791</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.8768830895423889</v>
       </c>
       <c r="W218" t="n">
-        <v>0.0002057924284599721</v>
+        <v>0.1271757036447525</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5196921825408936</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.4022085070610046</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0004708393244072795</v>
+        <v>0.01380241382867098</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5184299945831299</v>
       </c>
       <c r="V220" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.8745197057723999</v>
       </c>
       <c r="W220" t="n">
-        <v>0.0188729465007782</v>
+        <v>0.1267998814582825</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5161139965057373</v>
       </c>
       <c r="V221" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.3976841270923615</v>
       </c>
       <c r="W221" t="n">
-        <v>0.0001487672416260466</v>
+        <v>0.01402563415467739</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3865790367126465</v>
       </c>
       <c r="V222" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.515046238899231</v>
       </c>
       <c r="W222" t="n">
-        <v>0.001281002769246697</v>
+        <v>0.01650382205843925</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3882319927215576</v>
       </c>
       <c r="V223" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.4988101124763489</v>
       </c>
       <c r="W223" t="n">
-        <v>0.07106577605009079</v>
+        <v>0.01222752034664154</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.392341136932373</v>
       </c>
       <c r="V224" t="n">
-        <v>0.375304102897644</v>
+        <v>0.4958950877189636</v>
       </c>
       <c r="W224" t="n">
-        <v>0.0002902605338022113</v>
+        <v>0.01072342041879892</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3893389701843262</v>
       </c>
       <c r="V225" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.409854918718338</v>
       </c>
       <c r="W225" t="n">
-        <v>3.569973841877072e-06</v>
+        <v>0.0004209041362628341</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3910350799560547</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.5013304948806763</v>
       </c>
       <c r="W226" t="n">
-        <v>0.06265858560800552</v>
+        <v>0.01216507889330387</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3922219276428223</v>
       </c>
       <c r="V227" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.4896049797534943</v>
       </c>
       <c r="W227" t="n">
-        <v>0.0689636766910553</v>
+        <v>0.00948345847427845</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3892111778259277</v>
       </c>
       <c r="V228" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.3973593711853027</v>
       </c>
       <c r="W228" t="n">
-        <v>0.1771229803562164</v>
+        <v>6.639305502176285e-05</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4063241481781006</v>
       </c>
       <c r="V229" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.868141770362854</v>
       </c>
       <c r="W229" t="n">
-        <v>0.2874598801136017</v>
+        <v>0.2132755219936371</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3878369331359863</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.4945290684700012</v>
       </c>
       <c r="W230" t="n">
-        <v>0.003930767066776752</v>
+        <v>0.01138321217149496</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3924751281738281</v>
       </c>
       <c r="V231" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.4940059185028076</v>
       </c>
       <c r="W231" t="n">
-        <v>0.001738207065500319</v>
+        <v>0.01030850131064653</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4192509651184082</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.4992368221282959</v>
       </c>
       <c r="W232" t="n">
-        <v>0.003402194241061807</v>
+        <v>0.006397737190127373</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3950631618499756</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.8675709366798401</v>
       </c>
       <c r="W233" t="n">
-        <v>0.01942611299455166</v>
+        <v>0.2232635915279388</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3978090286254883</v>
       </c>
       <c r="V234" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.8579488396644592</v>
       </c>
       <c r="W234" t="n">
-        <v>0.1482495069503784</v>
+        <v>0.211728647351265</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4466910362243652</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.397341251373291</v>
       </c>
       <c r="W235" t="n">
-        <v>0.004574404563754797</v>
+        <v>0.002435401314869523</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3940329551696777</v>
       </c>
       <c r="V236" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.5146813988685608</v>
       </c>
       <c r="W236" t="n">
-        <v>0.0003334995126351714</v>
+        <v>0.01455604657530785</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3929460048675537</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.4033156633377075</v>
       </c>
       <c r="W237" t="n">
-        <v>0.07792359590530396</v>
+        <v>0.0001075298132491298</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3883669376373291</v>
       </c>
       <c r="V238" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.3991960883140564</v>
       </c>
       <c r="W238" t="n">
-        <v>0.1695030778646469</v>
+        <v>0.0001172705015051179</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3886668682098389</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.5009825825691223</v>
       </c>
       <c r="W239" t="n">
-        <v>0.07092367112636566</v>
+        <v>0.01261482015252113</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3828158378601074</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.4015902578830719</v>
       </c>
       <c r="W240" t="n">
-        <v>0.0004320337320677936</v>
+        <v>0.0003524788480717689</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4546289443969727</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.4033296704292297</v>
       </c>
       <c r="W241" t="n">
-        <v>0.002598371123895049</v>
+        <v>0.002631615614518523</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8916130065917969</v>
       </c>
       <c r="V242" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.5078624486923218</v>
       </c>
       <c r="W242" t="n">
-        <v>0.05530650168657303</v>
+        <v>0.1472644954919815</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8693139553070068</v>
       </c>
       <c r="V243" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.5017457008361816</v>
       </c>
       <c r="W243" t="n">
-        <v>0.005922708194702864</v>
+        <v>0.1351064145565033</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.867016077041626</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.8689394593238831</v>
       </c>
       <c r="W244" t="n">
-        <v>0.09329371154308319</v>
+        <v>3.699399485412869e-06</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.9662671089172363</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.8750471472740173</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1516129672527313</v>
+        <v>0.008321081288158894</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8788800239562988</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.5001315474510193</v>
       </c>
       <c r="W246" t="n">
-        <v>0.05084879323840141</v>
+        <v>0.1434504091739655</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8716778755187988</v>
       </c>
       <c r="V247" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.4941087663173676</v>
       </c>
       <c r="W247" t="n">
-        <v>0.007739248685538769</v>
+        <v>0.1425584256649017</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8707129955291748</v>
       </c>
       <c r="V248" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.4973761439323425</v>
       </c>
       <c r="W248" t="n">
-        <v>0.004501360468566418</v>
+        <v>0.1393804103136063</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9598050117492676</v>
       </c>
       <c r="V249" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.8992445468902588</v>
       </c>
       <c r="W249" t="n">
-        <v>0.0238785408437252</v>
+        <v>0.003667569952085614</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8751721382141113</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.5287069082260132</v>
       </c>
       <c r="W250" t="n">
-        <v>0.05392183363437653</v>
+        <v>0.1200381591916084</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8798120021820068</v>
       </c>
       <c r="V251" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.9012851119041443</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1145386099815369</v>
+        <v>0.0004610944306477904</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8722288608551025</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.4915352165699005</v>
       </c>
       <c r="W252" t="n">
-        <v>0.2196061015129089</v>
+        <v>0.1449276506900787</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>1.004408121109009</v>
       </c>
       <c r="V253" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.4959401190280914</v>
       </c>
       <c r="W253" t="n">
-        <v>0.03556225076317787</v>
+        <v>0.2585397362709045</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8757600784301758</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.4941718578338623</v>
       </c>
       <c r="W254" t="n">
-        <v>0.0317622534930706</v>
+        <v>0.1456095725297928</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8689110279083252</v>
       </c>
       <c r="V255" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.8710867762565613</v>
       </c>
       <c r="W255" t="n">
-        <v>0.031831294298172</v>
+        <v>4.733880814455915e-06</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8707699775695801</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.4010496735572815</v>
       </c>
       <c r="W256" t="n">
-        <v>0.04748427122831345</v>
+        <v>0.2206371575593948</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.9313678741455078</v>
       </c>
       <c r="V257" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.518065333366394</v>
       </c>
       <c r="W257" t="n">
-        <v>0.07772772014141083</v>
+        <v>0.1708189845085144</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8635938167572021</v>
       </c>
       <c r="V258" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.5035260319709778</v>
       </c>
       <c r="W258" t="n">
-        <v>0.2337722480297089</v>
+        <v>0.1296488046646118</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8715140819549561</v>
       </c>
       <c r="V259" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.8709884881973267</v>
       </c>
       <c r="W259" t="n">
-        <v>0.005086431279778481</v>
+        <v>2.76248783848132e-07</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8653049468994141</v>
       </c>
       <c r="V260" t="n">
-        <v>0.54131019115448</v>
+        <v>0.5077980756759644</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1049726009368896</v>
+        <v>0.1278111636638641</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.9250729084014893</v>
       </c>
       <c r="V261" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.8748785257339478</v>
       </c>
       <c r="W261" t="n">
-        <v>0.02020083926618099</v>
+        <v>0.002519475994631648</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5591721534729004</v>
       </c>
       <c r="V262" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.8671745657920837</v>
       </c>
       <c r="W262" t="n">
-        <v>0.04342632740736008</v>
+        <v>0.09486548602581024</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5300519466400146</v>
       </c>
       <c r="V263" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.8675475716590881</v>
       </c>
       <c r="W263" t="n">
-        <v>0.03154917061328888</v>
+        <v>0.1139032989740372</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5166091918945312</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.5018688440322876</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0002432882756693289</v>
+        <v>0.0002172778622480109</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5137851238250732</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.8649079203605652</v>
       </c>
       <c r="W265" t="n">
-        <v>0.000544159731362015</v>
+        <v>0.1232872158288956</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5742290019989014</v>
       </c>
       <c r="V266" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.5148468017578125</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01351324003189802</v>
+        <v>0.003526245709508657</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5162088871002197</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.5149846076965332</v>
       </c>
       <c r="W267" t="n">
-        <v>0.001970045501366258</v>
+        <v>1.498860001447611e-06</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5228688716888428</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.3973633646965027</v>
       </c>
       <c r="W268" t="n">
-        <v>0.01483406499028206</v>
+        <v>0.01575163193047047</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.523996114730835</v>
       </c>
       <c r="V269" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.3973557949066162</v>
       </c>
       <c r="W269" t="n">
-        <v>0.000492813007440418</v>
+        <v>0.01603777147829533</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5222909450531006</v>
       </c>
       <c r="V270" t="n">
-        <v>0.541418194770813</v>
+        <v>0.4008801281452179</v>
       </c>
       <c r="W270" t="n">
-        <v>0.0003658516798168421</v>
+        <v>0.01474058628082275</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5585231781005859</v>
       </c>
       <c r="V271" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.3975139856338501</v>
       </c>
       <c r="W271" t="n">
-        <v>0.04335895925760269</v>
+        <v>0.0259239599108696</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5330021381378174</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.8838457465171814</v>
       </c>
       <c r="W272" t="n">
-        <v>0.004520592279732227</v>
+        <v>0.1230912357568741</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5223870277404785</v>
       </c>
       <c r="V273" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.5167394876480103</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0224628858268261</v>
+        <v>3.189470953657292e-05</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5293920040130615</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.398691862821579</v>
       </c>
       <c r="W274" t="n">
-        <v>0.0001438618637621403</v>
+        <v>0.01708252727985382</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5225329399108887</v>
       </c>
       <c r="V275" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.4129340350627899</v>
       </c>
       <c r="W275" t="n">
-        <v>0.01967767812311649</v>
+        <v>0.01201192010194063</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5132830142974854</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.8808838725090027</v>
       </c>
       <c r="W276" t="n">
-        <v>0.001271767308935523</v>
+        <v>0.1351303905248642</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5233111381530762</v>
       </c>
       <c r="V277" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.4926471710205078</v>
       </c>
       <c r="W277" t="n">
-        <v>0.06754056364297867</v>
+        <v>0.0009402788709849119</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5212230682373047</v>
       </c>
       <c r="V278" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.5018491148948669</v>
       </c>
       <c r="W278" t="n">
-        <v>0.02904890663921833</v>
+        <v>0.0003753500641323626</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5284659862518311</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.5166226625442505</v>
       </c>
       <c r="W279" t="n">
-        <v>3.105870973740821e-07</v>
+        <v>0.000140264310175553</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5253629684448242</v>
       </c>
       <c r="V280" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.8706873655319214</v>
       </c>
       <c r="W280" t="n">
-        <v>0.013936473056674</v>
+        <v>0.1192489415407181</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5246858596801758</v>
       </c>
       <c r="V281" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.4022814929485321</v>
       </c>
       <c r="W281" t="n">
-        <v>0.08025317639112473</v>
+        <v>0.01498282887041569</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4657120704650879</v>
       </c>
       <c r="V282" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.4999856948852539</v>
       </c>
       <c r="W282" t="n">
-        <v>0.002383080078288913</v>
+        <v>0.001174681354314089</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3958520889282227</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.4999611079692841</v>
       </c>
       <c r="W283" t="n">
-        <v>0.003008056432008743</v>
+        <v>0.01083868741989136</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3975038528442383</v>
       </c>
       <c r="V284" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.8709385395050049</v>
       </c>
       <c r="W284" t="n">
-        <v>0.002183159347623587</v>
+        <v>0.2241404056549072</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3968760967254639</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.8744325041770935</v>
       </c>
       <c r="W285" t="n">
-        <v>4.621319749276154e-05</v>
+        <v>0.2280601263046265</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3983209133148193</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.4956656694412231</v>
       </c>
       <c r="W286" t="n">
-        <v>0.01071529928594828</v>
+        <v>0.009476001374423504</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3960919380187988</v>
       </c>
       <c r="V287" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.8589248061180115</v>
       </c>
       <c r="W287" t="n">
-        <v>0.06050470471382141</v>
+        <v>0.2142142653465271</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3974840641021729</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.4970651566982269</v>
       </c>
       <c r="W288" t="n">
-        <v>3.809396730503067e-05</v>
+        <v>0.009916394017636776</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4083430767059326</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.8646697402000427</v>
       </c>
       <c r="W289" t="n">
-        <v>0.08338877558708191</v>
+        <v>0.2082340270280838</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3941519260406494</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.3973626494407654</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0216749794781208</v>
+        <v>1.030874500429491e-05</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3918838500976562</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.5149296522140503</v>
       </c>
       <c r="W291" t="n">
-        <v>0.0001284893223783001</v>
+        <v>0.01514026988297701</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4062309265136719</v>
       </c>
       <c r="V292" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.4014852941036224</v>
       </c>
       <c r="W292" t="n">
-        <v>0.0009418458794243634</v>
+        <v>2.252102785860188e-05</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3950259685516357</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.403546929359436</v>
       </c>
       <c r="W293" t="n">
-        <v>0.02028578147292137</v>
+        <v>7.260677375597879e-05</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3876020908355713</v>
       </c>
       <c r="V294" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.5011891722679138</v>
       </c>
       <c r="W294" t="n">
-        <v>0.001356063177809119</v>
+        <v>0.01290202513337135</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3975529670715332</v>
       </c>
       <c r="V295" t="n">
-        <v>0.654965877532959</v>
+        <v>0.8585005402565002</v>
       </c>
       <c r="W295" t="n">
-        <v>0.0662614032626152</v>
+        <v>0.2124726623296738</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4018018245697021</v>
       </c>
       <c r="V296" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.4032173454761505</v>
       </c>
       <c r="W296" t="n">
-        <v>0.1682438999414444</v>
+        <v>2.003699364649947e-06</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3973698616027832</v>
       </c>
       <c r="V297" t="n">
-        <v>0.656647801399231</v>
+        <v>0.3992131650447845</v>
       </c>
       <c r="W297" t="n">
-        <v>0.06722504645586014</v>
+        <v>3.397767613932956e-06</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3951141834259033</v>
       </c>
       <c r="V298" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.4009136855602264</v>
       </c>
       <c r="W298" t="n">
-        <v>0.01203714217990637</v>
+        <v>3.363422365509905e-05</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3976459503173828</v>
       </c>
       <c r="V299" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.4987786710262299</v>
       </c>
       <c r="W299" t="n">
-        <v>0.1488902121782303</v>
+        <v>0.01022782735526562</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3976891040802002</v>
       </c>
       <c r="V300" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.8679409623146057</v>
       </c>
       <c r="W300" t="n">
-        <v>0.002201173221692443</v>
+        <v>0.2211368083953857</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4209117889404297</v>
       </c>
       <c r="V301" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.8756232857704163</v>
       </c>
       <c r="W301" t="n">
-        <v>0.03508614376187325</v>
+        <v>0.2067625522613525</v>
       </c>
     </row>
     <row r="302" spans="1:23">
